--- a/LAB_FEED_MAP.xlsx
+++ b/LAB_FEED_MAP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9135" windowHeight="7680" firstSheet="22" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9135" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTORY" sheetId="40" r:id="rId1"/>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6282,7 +6282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
